--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1557.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1557.xlsx
@@ -351,13 +351,13 @@
         <v>1.240809501637067</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>0.977789472426467</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1557.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1557.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.240809501637067</v>
+        <v>1.386665105819702</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1.578549027442932</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.932479858398438</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.925748705863953</v>
       </c>
       <c r="E1">
-        <v>0.977789472426467</v>
+        <v>0.8726926445960999</v>
       </c>
     </row>
   </sheetData>
